--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H2">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J2">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8906574007815899</v>
+        <v>1.051909333333333</v>
       </c>
       <c r="N2">
-        <v>0.8906574007815899</v>
+        <v>3.155728</v>
       </c>
       <c r="O2">
-        <v>0.7578549225531123</v>
+        <v>0.6689916625345733</v>
       </c>
       <c r="P2">
-        <v>0.7578549225531123</v>
+        <v>0.6689916625345734</v>
       </c>
       <c r="Q2">
-        <v>17.53152506880337</v>
+        <v>27.65608559492622</v>
       </c>
       <c r="R2">
-        <v>17.53152506880337</v>
+        <v>248.904770354336</v>
       </c>
       <c r="S2">
-        <v>0.0836082554384477</v>
+        <v>0.094447052643179</v>
       </c>
       <c r="T2">
-        <v>0.0836082554384477</v>
+        <v>0.09444705264317901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6838032821809</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H3">
-        <v>19.6838032821809</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J3">
-        <v>0.1103222436779623</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.284577296884665</v>
+        <v>0.1261633333333333</v>
       </c>
       <c r="N3">
-        <v>0.284577296884665</v>
+        <v>0.37849</v>
       </c>
       <c r="O3">
-        <v>0.2421450774468877</v>
+        <v>0.08023716060215286</v>
       </c>
       <c r="P3">
-        <v>0.2421450774468877</v>
+        <v>0.08023716060215287</v>
       </c>
       <c r="Q3">
-        <v>5.601563530452538</v>
+        <v>3.317000653042222</v>
       </c>
       <c r="R3">
-        <v>5.601563530452538</v>
+        <v>29.85300587738</v>
       </c>
       <c r="S3">
-        <v>0.0267139882395146</v>
+        <v>0.01132773957543769</v>
       </c>
       <c r="T3">
-        <v>0.0267139882395146</v>
+        <v>0.01132773957543769</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>143.059322363049</v>
+        <v>26.29132066666667</v>
       </c>
       <c r="H4">
-        <v>143.059322363049</v>
+        <v>78.87396200000001</v>
       </c>
       <c r="I4">
-        <v>0.8018077195695177</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="J4">
-        <v>0.8018077195695177</v>
+        <v>0.1411782207947891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8906574007815899</v>
+        <v>0.3943076666666667</v>
       </c>
       <c r="N4">
-        <v>0.8906574007815899</v>
+        <v>1.182923</v>
       </c>
       <c r="O4">
-        <v>0.7578549225531123</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="P4">
-        <v>0.7578549225531123</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="Q4">
-        <v>127.4168442134488</v>
+        <v>10.36686930565845</v>
       </c>
       <c r="R4">
-        <v>127.4168442134488</v>
+        <v>93.30182375092602</v>
       </c>
       <c r="S4">
-        <v>0.6076539272168444</v>
+        <v>0.03540342857617236</v>
       </c>
       <c r="T4">
-        <v>0.6076539272168444</v>
+        <v>0.03540342857617236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.059322363049</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H5">
-        <v>143.059322363049</v>
+        <v>430.417114</v>
       </c>
       <c r="I5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J5">
-        <v>0.8018077195695177</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.284577296884665</v>
+        <v>1.051909333333333</v>
       </c>
       <c r="N5">
-        <v>0.284577296884665</v>
+        <v>3.155728</v>
       </c>
       <c r="O5">
-        <v>0.2421450774468877</v>
+        <v>0.6689916625345733</v>
       </c>
       <c r="P5">
-        <v>0.2421450774468877</v>
+        <v>0.6689916625345734</v>
       </c>
       <c r="Q5">
-        <v>40.71143525222839</v>
+        <v>150.9199264809991</v>
       </c>
       <c r="R5">
-        <v>40.71143525222839</v>
+        <v>1358.279338328992</v>
       </c>
       <c r="S5">
-        <v>0.1941537923526733</v>
+        <v>0.5153998454456132</v>
       </c>
       <c r="T5">
-        <v>0.1941537923526733</v>
+        <v>0.5153998454456133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6778584279293</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H6">
-        <v>15.6778584279293</v>
+        <v>430.417114</v>
       </c>
       <c r="I6">
-        <v>0.08787003675252009</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J6">
-        <v>0.08787003675252009</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8906574007815899</v>
+        <v>0.1261633333333333</v>
       </c>
       <c r="N6">
-        <v>0.8906574007815899</v>
+        <v>0.37849</v>
       </c>
       <c r="O6">
-        <v>0.7578549225531123</v>
+        <v>0.08023716060215286</v>
       </c>
       <c r="P6">
-        <v>0.7578549225531123</v>
+        <v>0.08023716060215287</v>
       </c>
       <c r="Q6">
-        <v>13.96360063724125</v>
+        <v>18.10095260865111</v>
       </c>
       <c r="R6">
-        <v>13.96360063724125</v>
+        <v>162.90857347786</v>
       </c>
       <c r="S6">
-        <v>0.06659273989782023</v>
+        <v>0.06181574822123775</v>
       </c>
       <c r="T6">
-        <v>0.06659273989782023</v>
+        <v>0.06181574822123775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6778584279293</v>
+        <v>143.4723713333333</v>
       </c>
       <c r="H7">
-        <v>15.6778584279293</v>
+        <v>430.417114</v>
       </c>
       <c r="I7">
-        <v>0.08787003675252009</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="J7">
-        <v>0.08787003675252009</v>
+        <v>0.7704129577533824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.284577296884665</v>
+        <v>0.3943076666666667</v>
       </c>
       <c r="N7">
-        <v>0.284577296884665</v>
+        <v>1.182923</v>
       </c>
       <c r="O7">
-        <v>0.2421450774468877</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="P7">
-        <v>0.2421450774468877</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="Q7">
-        <v>4.461562572360584</v>
+        <v>56.57225597158022</v>
       </c>
       <c r="R7">
-        <v>4.461562572360584</v>
+        <v>509.150303744222</v>
       </c>
       <c r="S7">
-        <v>0.02127729685469985</v>
+        <v>0.1931973640865313</v>
       </c>
       <c r="T7">
-        <v>0.02127729685469985</v>
+        <v>0.1931973640865313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.46418733333334</v>
+      </c>
+      <c r="H8">
+        <v>49.39256200000001</v>
+      </c>
+      <c r="I8">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="J8">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.051909333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.155728</v>
+      </c>
+      <c r="O8">
+        <v>0.6689916625345733</v>
+      </c>
+      <c r="P8">
+        <v>0.6689916625345734</v>
+      </c>
+      <c r="Q8">
+        <v>17.31883232168178</v>
+      </c>
+      <c r="R8">
+        <v>155.869490895136</v>
+      </c>
+      <c r="S8">
+        <v>0.05914476444578102</v>
+      </c>
+      <c r="T8">
+        <v>0.05914476444578103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.46418733333334</v>
+      </c>
+      <c r="H9">
+        <v>49.39256200000001</v>
+      </c>
+      <c r="I9">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="J9">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1261633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.37849</v>
+      </c>
+      <c r="O9">
+        <v>0.08023716060215286</v>
+      </c>
+      <c r="P9">
+        <v>0.08023716060215287</v>
+      </c>
+      <c r="Q9">
+        <v>2.077176754597778</v>
+      </c>
+      <c r="R9">
+        <v>18.69459079138</v>
+      </c>
+      <c r="S9">
+        <v>0.007093672805477422</v>
+      </c>
+      <c r="T9">
+        <v>0.007093672805477424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.46418733333334</v>
+      </c>
+      <c r="H10">
+        <v>49.39256200000001</v>
+      </c>
+      <c r="I10">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="J10">
+        <v>0.08840882145182853</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3943076666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.182923</v>
+      </c>
+      <c r="O10">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="P10">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="Q10">
+        <v>6.491955290969557</v>
+      </c>
+      <c r="R10">
+        <v>58.42759761872601</v>
+      </c>
+      <c r="S10">
+        <v>0.02217038420057009</v>
+      </c>
+      <c r="T10">
+        <v>0.02217038420057009</v>
       </c>
     </row>
   </sheetData>
